--- a/Documentacion/Pruebas de Carga Exp 2.xlsx
+++ b/Documentacion/Pruebas de Carga Exp 2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>NUM. THREADS (MIL)</t>
   </si>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -102,6 +102,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -393,9 +394,10 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +407,17 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>35</v>
       </c>
@@ -416,8 +427,17 @@
       <c r="D3" s="2">
         <v>18000</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>29.05</v>
+      </c>
+      <c r="H3" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>35</v>
       </c>
@@ -427,8 +447,17 @@
       <c r="D4" s="2">
         <v>17765</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>35</v>
       </c>
@@ -438,8 +467,17 @@
       <c r="D5" s="2">
         <v>18028</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>35</v>
       </c>
@@ -449,8 +487,17 @@
       <c r="D6" s="2">
         <v>17804</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>19.66</v>
+      </c>
+      <c r="H6" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>35</v>
       </c>
@@ -460,18 +507,78 @@
       <c r="D7" s="2">
         <v>18016</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>B3+B4+B5+B6+B7</f>
+        <f>$B$3+$B$4+$B$5+$B$6+$B$7</f>
         <v>175</v>
       </c>
       <c r="C8">
-        <f>SUM(C3:C7)/5</f>
+        <f>SUM($C$3:$C$7)/5</f>
         <v>99.488000000000014</v>
       </c>
       <c r="D8">
-        <f>SUM(D3:D7)/5</f>
+        <f>SUM($D$3:$D$7)/5</f>
+        <v>17922.599999999999</v>
+      </c>
+      <c r="F8">
+        <f>$F$3+$F$4+$F$5+$F$6+$F$7</f>
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <f>SUM($G$3:$G$7)/5</f>
+        <v>23.529999999999998</v>
+      </c>
+      <c r="H8">
+        <f>SUM($H$3:$H$7)/5</f>
+        <v>240.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f>$F$3+$F$4+$F$5+$F$6+$F$7</f>
+        <v>65</v>
+      </c>
+      <c r="C12" s="3">
+        <f>SUM($G$3:$G$7)/5</f>
+        <v>23.529999999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM($H$3:$H$7)/5</f>
+        <v>240.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f>$B$3+$B$4+$B$5+$B$6+$B$7</f>
+        <v>175</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM($C$3:$C$7)/5</f>
+        <v>99.488000000000014</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM($D$3:$D$7)/5</f>
         <v>17922.599999999999</v>
       </c>
     </row>
